--- a/CC Inspection Indy.xlsx
+++ b/CC Inspection Indy.xlsx
@@ -486,11 +486,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">

--- a/CC Inspection Indy.xlsx
+++ b/CC Inspection Indy.xlsx
@@ -438,9 +438,9 @@
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="3" customWidth="1" min="3" max="3"/>
-    <col width="3" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -1086,7 +1086,11 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>testesza</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1096,7 +1100,11 @@
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Pulley Noise</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
     </row>
@@ -1373,7 +1381,11 @@
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Tracked</t>
+        </is>
+      </c>
       <c r="F76" t="inlineStr"/>
     </row>
     <row r="77">
@@ -1383,7 +1395,11 @@
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Needs Tracked</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>

--- a/CC Inspection Indy.xlsx
+++ b/CC Inspection Indy.xlsx
@@ -135,7 +135,7 @@
     <tableColumn id="5" name="4-(B)"/>
     <tableColumn id="6" name="COMMENTS"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium9" showRowStripes="1"/>
 </table>
 </file>
 
@@ -438,9 +438,9 @@
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="3" customWidth="1" min="3" max="3"/>
+    <col width="3" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -1086,11 +1086,7 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>testesza</t>
-        </is>
-      </c>
+      <c r="F52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1100,11 +1096,7 @@
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Pulley Noise</t>
-        </is>
-      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
     </row>
@@ -1381,11 +1373,7 @@
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Tracked</t>
-        </is>
-      </c>
+      <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
     </row>
     <row r="77">
@@ -1395,11 +1383,7 @@
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Needs Tracked</t>
-        </is>
-      </c>
+      <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
